--- a/4.12.2023/18_6.xlsx
+++ b/4.12.2023/18_6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ЕГЭ\2023\2023-03 ТР4\Файлы ТР4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\letkh\Documents\GitHub\Informatika23-24\4.12.2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F6B1D8-52BD-4EDC-8330-7AF53BC64920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD9E019-58B5-400A-9ED7-6D18F16B669D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{6CF9F464-3206-461F-98B0-C1795E2DDBCA}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{6CF9F464-3206-461F-98B0-C1795E2DDBCA}"/>
   </bookViews>
   <sheets>
     <sheet name="18" sheetId="6" r:id="rId1"/>
@@ -23,10 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -52,12 +49,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -152,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -165,6 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -479,20 +486,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B0D428-36C2-45C8-9DE7-D0C0F5BEA535}">
-  <dimension ref="B1:U21"/>
+  <dimension ref="B1:AP21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="AO20" sqref="AO20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.453125" customWidth="1"/>
-    <col min="2" max="21" width="4.6328125" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="21" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B2" s="1">
         <v>38</v>
       </c>
@@ -553,8 +560,34 @@
       <c r="U2" s="4">
         <v>98</v>
       </c>
+      <c r="W2" s="12">
+        <f>B2</f>
+        <v>38</v>
+      </c>
+      <c r="X2" s="2">
+        <f>IF(MOD(W2,2) = MOD(C2,2), W2+C2, 0)</f>
+        <v>112</v>
+      </c>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+      <c r="AP2" s="4"/>
     </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B3" s="5">
         <v>26</v>
       </c>
@@ -615,8 +648,27 @@
       <c r="U3" s="7">
         <v>93</v>
       </c>
+      <c r="W3" s="5"/>
+      <c r="X3" s="13">
+        <f>MAX(X2,W3)+C3</f>
+        <v>136</v>
+      </c>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AP3" s="7"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>30</v>
       </c>
@@ -677,8 +729,36 @@
       <c r="U4" s="7">
         <v>39</v>
       </c>
+      <c r="W4" s="5"/>
+      <c r="X4" s="6">
+        <f>IF(MOD(X3,2)&lt;&gt;MOD(D3,2),X3+D3,0)</f>
+        <v>205</v>
+      </c>
+      <c r="Y4" s="13">
+        <f>MAX(Y3,X4)+D4</f>
+        <v>294</v>
+      </c>
+      <c r="Z4" s="6">
+        <f>IF(MOD(Y4,2) = MOD(E4,2), Y4+E4, 0)</f>
+        <v>336</v>
+      </c>
+      <c r="AA4" s="6">
+        <f>IF(MOD(Z4,2) = MOD(F4,2), Z4+F4, 0)</f>
+        <v>338</v>
+      </c>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AP4" s="7"/>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>73</v>
       </c>
@@ -739,8 +819,27 @@
       <c r="U5" s="7">
         <v>30</v>
       </c>
+      <c r="W5" s="5"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="13">
+        <f>MAX(Z4,Y5)+E5</f>
+        <v>403</v>
+      </c>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AP5" s="7"/>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>18</v>
       </c>
@@ -801,8 +900,30 @@
       <c r="U6" s="7">
         <v>75</v>
       </c>
+      <c r="W6" s="5"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6">
+        <f>IF(MOD(Z5,2)&lt;&gt;MOD(F5,2),Z5+F5,0)</f>
+        <v>473</v>
+      </c>
+      <c r="AA6" s="13">
+        <f>MAX(AA5,Z6)+F6</f>
+        <v>483</v>
+      </c>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="6"/>
+      <c r="AP6" s="7"/>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>89</v>
       </c>
@@ -863,8 +984,27 @@
       <c r="U7" s="7">
         <v>34</v>
       </c>
+      <c r="W7" s="5"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="13">
+        <f>MAX(AB6,AA7)+G7</f>
+        <v>50</v>
+      </c>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
+      <c r="AK7" s="6"/>
+      <c r="AP7" s="7"/>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>27</v>
       </c>
@@ -925,8 +1065,27 @@
       <c r="U8" s="7">
         <v>75</v>
       </c>
+      <c r="W8" s="5"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="13">
+        <f>MAX(AC7,AB8)+H8</f>
+        <v>8</v>
+      </c>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
+      <c r="AK8" s="6"/>
+      <c r="AP8" s="7"/>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B9" s="5">
         <v>59</v>
       </c>
@@ -987,8 +1146,27 @@
       <c r="U9" s="7">
         <v>53</v>
       </c>
+      <c r="W9" s="5"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="13">
+        <f>MAX(AD8,AC9)+I9</f>
+        <v>71</v>
+      </c>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
+      <c r="AK9" s="6"/>
+      <c r="AP9" s="7"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B10" s="5">
         <v>39</v>
       </c>
@@ -1049,8 +1227,27 @@
       <c r="U10" s="7">
         <v>39</v>
       </c>
+      <c r="W10" s="5"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="13">
+        <f>MAX(AE9,AD10)+J10</f>
+        <v>90</v>
+      </c>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AP10" s="7"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B11" s="5">
         <v>39</v>
       </c>
@@ -1111,8 +1308,27 @@
       <c r="U11" s="7">
         <v>31</v>
       </c>
+      <c r="W11" s="5"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="13">
+        <f>MAX(AF10,AE11)+K11</f>
+        <v>60</v>
+      </c>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AP11" s="7"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B12" s="5">
         <v>8</v>
       </c>
@@ -1173,8 +1389,27 @@
       <c r="U12" s="7">
         <v>99</v>
       </c>
+      <c r="W12" s="5"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="13">
+        <f>MAX(AG11,AF12)+L12</f>
+        <v>54</v>
+      </c>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AP12" s="7"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B13" s="5">
         <v>62</v>
       </c>
@@ -1235,8 +1470,27 @@
       <c r="U13" s="7">
         <v>12</v>
       </c>
+      <c r="W13" s="5"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="13">
+        <f>MAX(AH12,AG13)+M13</f>
+        <v>83</v>
+      </c>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AP13" s="7"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B14" s="5">
         <v>79</v>
       </c>
@@ -1297,8 +1551,27 @@
       <c r="U14" s="7">
         <v>16</v>
       </c>
+      <c r="W14" s="5"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="13">
+        <f>MAX(AI13,AH14)+N14</f>
+        <v>16</v>
+      </c>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AP14" s="7"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B15" s="5">
         <v>78</v>
       </c>
@@ -1359,8 +1632,27 @@
       <c r="U15" s="7">
         <v>57</v>
       </c>
+      <c r="W15" s="5"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="13">
+        <f>MAX(AJ14,AI15)+O15</f>
+        <v>16</v>
+      </c>
+      <c r="AK15" s="6"/>
+      <c r="AP15" s="7"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B16" s="5">
         <v>33</v>
       </c>
@@ -1421,8 +1713,27 @@
       <c r="U16" s="7">
         <v>23</v>
       </c>
+      <c r="W16" s="5"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="13">
+        <f>MAX(AK15,AJ16)+P16</f>
+        <v>78</v>
+      </c>
+      <c r="AP16" s="7"/>
     </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B17" s="8">
         <v>64</v>
       </c>
@@ -1483,8 +1794,14 @@
       <c r="U17" s="7">
         <v>73</v>
       </c>
+      <c r="W17" s="8"/>
+      <c r="AL17" s="14">
+        <f>MAX(AL16,AK17)+Q17</f>
+        <v>54</v>
+      </c>
+      <c r="AP17" s="7"/>
     </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B18" s="8">
         <v>40</v>
       </c>
@@ -1545,8 +1862,14 @@
       <c r="U18" s="7">
         <v>92</v>
       </c>
+      <c r="W18" s="8"/>
+      <c r="AM18" s="14">
+        <f>MAX(AM17,AL18)+R18</f>
+        <v>26</v>
+      </c>
+      <c r="AP18" s="7"/>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B19" s="8">
         <v>18</v>
       </c>
@@ -1607,8 +1930,14 @@
       <c r="U19" s="7">
         <v>58</v>
       </c>
+      <c r="W19" s="8"/>
+      <c r="AN19" s="14">
+        <f>MAX(AN18,AM19)+S19</f>
+        <v>15</v>
+      </c>
+      <c r="AP19" s="7"/>
     </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:42" x14ac:dyDescent="0.25">
       <c r="B20" s="8">
         <v>57</v>
       </c>
@@ -1669,8 +1998,14 @@
       <c r="U20" s="7">
         <v>57</v>
       </c>
+      <c r="W20" s="8"/>
+      <c r="AO20" s="14">
+        <f>MAX(AO19,AN20)+T20</f>
+        <v>88</v>
+      </c>
+      <c r="AP20" s="7"/>
     </row>
-    <row r="21" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9">
         <v>88</v>
       </c>
@@ -1731,6 +2066,26 @@
       <c r="U21" s="11">
         <v>38</v>
       </c>
+      <c r="W21" s="9"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="10"/>
+      <c r="AJ21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
